--- a/Hw1.xlsx
+++ b/Hw1.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis_phd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\job\phd-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8789126-A5DB-491D-9523-D689DFD492F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="147">
   <si>
     <t>نام</t>
   </si>
@@ -424,12 +426,54 @@
   </si>
   <si>
     <t xml:space="preserve">From 20 </t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
+    <t>SumTot</t>
+  </si>
+  <si>
+    <t>From 20</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>SumFinal</t>
+  </si>
+  <si>
+    <t>Hw1</t>
+  </si>
+  <si>
+    <t>Hw2</t>
+  </si>
+  <si>
+    <t>Hw3</t>
+  </si>
+  <si>
+    <t>class mark</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Final</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -515,14 +559,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -530,10 +568,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -810,26 +854,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView rightToLeft="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="18.140625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="18.140625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2"/>
@@ -843,9 +887,9 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="2" t="s">
         <v>123</v>
       </c>
@@ -873,18 +917,18 @@
       <c r="L2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2">
@@ -916,19 +960,19 @@
         <f>J3*(1-(K3/70))</f>
         <v>42</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <f>L3/50*20</f>
         <v>16.8</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2">
@@ -960,19 +1004,19 @@
         <f t="shared" ref="L4:L56" si="0">J4*(1-(K4/70))</f>
         <v>49</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f t="shared" ref="M4:M56" si="1">L4/50*20</f>
         <v>19.600000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2">
@@ -1004,19 +1048,19 @@
         <f t="shared" si="0"/>
         <v>44.1</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <f t="shared" si="1"/>
         <v>17.64</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2">
@@ -1048,19 +1092,19 @@
         <f t="shared" si="0"/>
         <v>37.857142857142854</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <f t="shared" si="1"/>
         <v>15.142857142857142</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2">
@@ -1092,19 +1136,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2">
@@ -1136,19 +1180,19 @@
         <f t="shared" si="0"/>
         <v>31.542857142857144</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <f t="shared" si="1"/>
         <v>12.617142857142857</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="2">
@@ -1180,19 +1224,19 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <f t="shared" si="1"/>
         <v>19.600000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="2">
@@ -1204,7 +1248,7 @@
       <c r="F10" s="2">
         <v>10</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>0</v>
       </c>
       <c r="H10" s="2">
@@ -1217,26 +1261,26 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="4">
         <v>22</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="0"/>
         <v>19.885714285714286</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <f t="shared" si="1"/>
         <v>7.9542857142857146</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="2">
@@ -1268,19 +1312,19 @@
         <f t="shared" si="0"/>
         <v>55.714285714285715</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <f t="shared" si="1"/>
         <v>22.285714285714285</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="2">
@@ -1312,25 +1356,25 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>9</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>10</v>
       </c>
       <c r="F13" s="1">
@@ -1356,19 +1400,19 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <f t="shared" si="1"/>
         <v>19.600000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="2">
@@ -1400,19 +1444,19 @@
         <f t="shared" si="0"/>
         <v>28.257142857142856</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <f t="shared" si="1"/>
         <v>11.302857142857142</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="2">
@@ -1444,19 +1488,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="2">
@@ -1488,19 +1532,19 @@
         <f t="shared" si="0"/>
         <v>55.714285714285715</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <f t="shared" si="1"/>
         <v>22.285714285714285</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="2">
@@ -1532,19 +1576,19 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="2">
@@ -1576,19 +1620,19 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="2">
@@ -1620,19 +1664,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="2">
@@ -1664,19 +1708,19 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="2">
@@ -1708,25 +1752,25 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>9</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="4">
         <v>10</v>
       </c>
       <c r="F22" s="1">
@@ -1752,25 +1796,25 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="3">
         <f t="shared" si="1"/>
         <v>20.399999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>9</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="4">
         <v>10</v>
       </c>
       <c r="F23" s="1">
@@ -1796,25 +1840,25 @@
         <f t="shared" si="0"/>
         <v>31.499999999999996</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="3">
         <f t="shared" si="1"/>
         <v>12.599999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="6">
-        <v>10</v>
-      </c>
-      <c r="E24" s="6">
+      <c r="D24" s="4">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4">
         <v>10</v>
       </c>
       <c r="F24" s="1">
@@ -1840,25 +1884,25 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>9</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="4">
         <v>10</v>
       </c>
       <c r="F25" s="1">
@@ -1884,19 +1928,19 @@
         <f t="shared" si="0"/>
         <v>31.499999999999996</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="3">
         <f t="shared" si="1"/>
         <v>12.599999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="2">
@@ -1928,25 +1972,25 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="3">
         <f t="shared" si="1"/>
         <v>16.8</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="6">
-        <v>10</v>
-      </c>
-      <c r="E27" s="6">
+      <c r="D27" s="4">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4">
         <v>10</v>
       </c>
       <c r="F27" s="1">
@@ -1972,19 +2016,19 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="3">
         <f t="shared" si="1"/>
         <v>19.2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="2">
@@ -2016,25 +2060,25 @@
         <f t="shared" si="0"/>
         <v>35.700000000000003</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="3">
         <f t="shared" si="1"/>
         <v>14.280000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="4">
         <v>9</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="4">
         <v>10</v>
       </c>
       <c r="F29" s="1">
@@ -2060,19 +2104,19 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="3">
         <f t="shared" si="1"/>
         <v>20.8</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="2">
@@ -2104,19 +2148,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D31" s="2">
@@ -2148,19 +2192,19 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="3">
         <f t="shared" si="1"/>
         <v>19.2</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D32" s="2">
@@ -2192,19 +2236,19 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="3">
         <f t="shared" si="1"/>
         <v>19.2</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D33" s="2">
@@ -2236,19 +2280,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="A34" s="5">
         <v>32</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D34" s="2">
@@ -2266,33 +2310,33 @@
       <c r="H34" s="2">
         <v>7</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="4">
         <v>10</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="4">
         <v>10</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="0"/>
         <v>46.285714285714292</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34" s="3">
         <f t="shared" si="1"/>
         <v>18.514285714285716</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D35" s="2">
@@ -2324,25 +2368,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="A36" s="5">
         <v>34</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="6">
-        <v>10</v>
-      </c>
-      <c r="E36" s="6">
+      <c r="D36" s="4">
+        <v>10</v>
+      </c>
+      <c r="E36" s="4">
         <v>10</v>
       </c>
       <c r="F36" s="1">
@@ -2368,25 +2412,25 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36" s="3">
         <f t="shared" si="1"/>
         <v>23.2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="6">
-        <v>10</v>
-      </c>
-      <c r="E37" s="6">
+      <c r="D37" s="4">
+        <v>10</v>
+      </c>
+      <c r="E37" s="4">
         <v>10</v>
       </c>
       <c r="F37" s="1">
@@ -2412,19 +2456,19 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37" s="3">
         <f t="shared" si="1"/>
         <v>22.400000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="A38" s="5">
         <v>36</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D38" s="2">
@@ -2456,19 +2500,19 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M38" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D39" s="2">
@@ -2500,19 +2544,19 @@
         <f t="shared" si="0"/>
         <v>47.314285714285717</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M39" s="3">
         <f t="shared" si="1"/>
         <v>18.925714285714285</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+      <c r="A40" s="5">
         <v>38</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D40" s="2">
@@ -2544,19 +2588,19 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="M40" s="4">
+      <c r="M40" s="3">
         <f t="shared" si="1"/>
         <v>18.400000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="A41" s="5">
         <v>39</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="2">
@@ -2588,19 +2632,19 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M41" s="3">
         <f t="shared" si="1"/>
         <v>22.400000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+      <c r="A42" s="5">
         <v>40</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D42" s="2">
@@ -2632,19 +2676,19 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="M42" s="4">
+      <c r="M42" s="3">
         <f t="shared" si="1"/>
         <v>18.400000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+      <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D43" s="2">
@@ -2676,19 +2720,19 @@
         <f t="shared" si="0"/>
         <v>54.4</v>
       </c>
-      <c r="M43" s="4">
+      <c r="M43" s="3">
         <f t="shared" si="1"/>
         <v>21.76</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="A44" s="5">
         <v>42</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D44" s="2">
@@ -2720,19 +2764,19 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M44" s="4">
+      <c r="M44" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D45" s="2">
@@ -2750,7 +2794,7 @@
       <c r="H45" s="2">
         <v>10</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="4">
         <v>10</v>
       </c>
       <c r="J45" s="2">
@@ -2764,19 +2808,19 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="M45" s="4">
+      <c r="M45" s="3">
         <f t="shared" si="1"/>
         <v>23.599999999999998</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="A46" s="5">
         <v>44</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D46" s="2">
@@ -2808,19 +2852,19 @@
         <f t="shared" si="0"/>
         <v>36.24285714285714</v>
       </c>
-      <c r="M46" s="4">
+      <c r="M46" s="3">
         <f t="shared" si="1"/>
         <v>14.497142857142855</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="A47" s="5">
         <v>45</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D47" s="2">
@@ -2852,19 +2896,19 @@
         <f t="shared" si="0"/>
         <v>32.228571428571428</v>
       </c>
-      <c r="M47" s="4">
+      <c r="M47" s="3">
         <f t="shared" si="1"/>
         <v>12.891428571428571</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="A48" s="5">
         <v>46</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D48" s="2">
@@ -2896,19 +2940,19 @@
         <f t="shared" si="0"/>
         <v>46.428571428571431</v>
       </c>
-      <c r="M48" s="4">
+      <c r="M48" s="3">
         <f t="shared" si="1"/>
         <v>18.571428571428573</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+      <c r="A49" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D49" s="2">
@@ -2940,19 +2984,19 @@
         <f t="shared" si="0"/>
         <v>36.4</v>
       </c>
-      <c r="M49" s="4">
+      <c r="M49" s="3">
         <f t="shared" si="1"/>
         <v>14.559999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="A50" s="5">
         <v>48</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="5" t="s">
         <v>90</v>
       </c>
       <c r="D50" s="2">
@@ -2984,19 +3028,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M50" s="4">
+      <c r="M50" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="A51" s="5">
         <v>49</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="5" t="s">
         <v>92</v>
       </c>
       <c r="D51" s="2">
@@ -3028,19 +3072,19 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="M51" s="4">
+      <c r="M51" s="3">
         <f t="shared" si="1"/>
         <v>22.400000000000002</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+      <c r="A52" s="5">
         <v>50</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="5" t="s">
         <v>94</v>
       </c>
       <c r="D52" s="2">
@@ -3072,19 +3116,19 @@
         <f t="shared" si="0"/>
         <v>43.085714285714289</v>
       </c>
-      <c r="M52" s="4">
+      <c r="M52" s="3">
         <f t="shared" si="1"/>
         <v>17.234285714285715</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+      <c r="A53" s="5">
         <v>51</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="5" t="s">
         <v>95</v>
       </c>
       <c r="D53" s="2">
@@ -3116,19 +3160,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M53" s="4">
+      <c r="M53" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+      <c r="A54" s="5">
         <v>52</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D54" s="2">
@@ -3160,19 +3204,19 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="M54" s="4">
+      <c r="M54" s="3">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
+      <c r="A55" s="5">
         <v>53</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D55" s="2">
@@ -3204,19 +3248,19 @@
         <f t="shared" si="0"/>
         <v>22.728571428571431</v>
       </c>
-      <c r="M55" s="4">
+      <c r="M55" s="3">
         <f t="shared" si="1"/>
         <v>9.0914285714285725</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
+      <c r="A56" s="5">
         <v>54</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D56" s="2"/>
@@ -3231,19 +3275,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M56" s="4">
+      <c r="M56" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
+      <c r="A57" s="5">
         <v>55</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="5" t="s">
         <v>102</v>
       </c>
       <c r="D57" s="2"/>
@@ -3257,13 +3301,13 @@
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
+      <c r="A58" s="5">
         <v>56</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="5" t="s">
         <v>103</v>
       </c>
       <c r="D58" s="2"/>
@@ -3277,13 +3321,13 @@
       <c r="L58" s="2"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
+      <c r="A59" s="5">
         <v>57</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D59" s="2"/>
@@ -3297,13 +3341,13 @@
       <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
+      <c r="A60" s="5">
         <v>58</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D60" s="2"/>
@@ -3317,13 +3361,13 @@
       <c r="L60" s="2"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
+      <c r="A61" s="5">
         <v>59</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D61" s="2"/>
@@ -3337,13 +3381,13 @@
       <c r="L61" s="2"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
+      <c r="A62" s="5">
         <v>60</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="5" t="s">
         <v>109</v>
       </c>
       <c r="D62" s="2"/>
@@ -3357,13 +3401,13 @@
       <c r="L62" s="2"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
+      <c r="A63" s="5">
         <v>61</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="5" t="s">
         <v>111</v>
       </c>
       <c r="D63" s="2"/>
@@ -3377,13 +3421,13 @@
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="7">
+      <c r="A64" s="5">
         <v>62</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="5" t="s">
         <v>113</v>
       </c>
       <c r="D64" s="2"/>
@@ -3397,13 +3441,13 @@
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
+      <c r="A65" s="5">
         <v>63</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="5" t="s">
         <v>115</v>
       </c>
       <c r="D65" s="2"/>
@@ -3417,13 +3461,13 @@
       <c r="L65" s="2"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="7">
+      <c r="A66" s="5">
         <v>64</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="5" t="s">
         <v>116</v>
       </c>
       <c r="D66" s="2"/>
@@ -3437,13 +3481,13 @@
       <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
+      <c r="A67" s="5">
         <v>65</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="5" t="s">
         <v>118</v>
       </c>
       <c r="D67" s="2"/>
@@ -3457,13 +3501,13 @@
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
+      <c r="A68" s="5">
         <v>66</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="5" t="s">
         <v>120</v>
       </c>
       <c r="D68" s="2"/>
@@ -3477,13 +3521,13 @@
       <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
+      <c r="A69" s="5">
         <v>67</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="5" t="s">
         <v>122</v>
       </c>
       <c r="D69" s="2"/>
@@ -3505,4 +3549,6877 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M69"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="18.140625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <f>SUM(D3:G3)</f>
+        <v>30</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <f>H3*(1-I3/70)</f>
+        <v>29.142857142857142</v>
+      </c>
+      <c r="K3" s="1">
+        <f>J3/2</f>
+        <v>14.571428571428571</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H63" si="0">SUM(D4:G4)</f>
+        <v>36</v>
+      </c>
+      <c r="I4" s="2">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J55" si="1">H4*(1-I4/70)</f>
+        <v>28.285714285714285</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K63" si="2">J4/2</f>
+        <v>14.142857142857142</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>29.142857142857142</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="2"/>
+        <v>14.571428571428571</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I6" s="1">
+        <v>14</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="I8" s="2">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="1"/>
+        <v>24.8</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
+        <v>12.4</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="1"/>
+        <v>19.428571428571427</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="2"/>
+        <v>9.7142857142857135</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I10" s="2">
+        <v>20</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="1"/>
+        <v>11.428571428571429</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="2"/>
+        <v>5.7142857142857144</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>7</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="I12" s="1">
+        <v>11</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="1"/>
+        <v>31.185714285714287</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>15.592857142857143</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
+        <v>26.228571428571428</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="2"/>
+        <v>13.114285714285714</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="I14" s="2">
+        <v>16</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="1"/>
+        <v>22.371428571428574</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="2"/>
+        <v>11.185714285714287</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="1"/>
+        <v>38.285714285714285</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="2"/>
+        <v>19.142857142857142</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I17" s="2">
+        <v>8</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="1"/>
+        <v>26.571428571428569</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="2"/>
+        <v>13.285714285714285</v>
+      </c>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I18" s="1">
+        <v>4</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="1"/>
+        <v>37.714285714285715</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="2"/>
+        <v>18.857142857142858</v>
+      </c>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>7</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="1"/>
+        <v>16.514285714285712</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2571428571428562</v>
+      </c>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>14</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="4">
+        <v>9</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6</v>
+      </c>
+      <c r="G22" s="1">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="4">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1">
+        <v>7</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="I24" s="2">
+        <v>9</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="1"/>
+        <v>32.24285714285714</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="2"/>
+        <v>16.12142857142857</v>
+      </c>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="4">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1">
+        <v>10</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I25" s="2">
+        <v>23</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="1"/>
+        <v>20.142857142857146</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="2"/>
+        <v>10.071428571428573</v>
+      </c>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="4">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1">
+        <v>9</v>
+      </c>
+      <c r="G27" s="1">
+        <v>7</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="I27" s="2">
+        <v>21</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="1"/>
+        <v>25.2</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="2"/>
+        <v>12.6</v>
+      </c>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="2">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2">
+        <v>7</v>
+      </c>
+      <c r="G28" s="2">
+        <v>10</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="I28" s="2">
+        <v>16</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="1"/>
+        <v>28.542857142857144</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="2"/>
+        <v>14.271428571428572</v>
+      </c>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="4">
+        <v>10</v>
+      </c>
+      <c r="E29" s="4">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1">
+        <v>9</v>
+      </c>
+      <c r="G29" s="1">
+        <v>10</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="2"/>
+        <v>18.5</v>
+      </c>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1">
+        <v>9</v>
+      </c>
+      <c r="G31" s="1">
+        <v>7</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="I31" s="2">
+        <v>24</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="1"/>
+        <v>23.657142857142858</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="2"/>
+        <v>11.828571428571429</v>
+      </c>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="4">
+        <v>9</v>
+      </c>
+      <c r="E32" s="4">
+        <v>5</v>
+      </c>
+      <c r="F32" s="1">
+        <v>6</v>
+      </c>
+      <c r="G32" s="1">
+        <v>10</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="1"/>
+        <v>29.142857142857142</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="2"/>
+        <v>14.571428571428571</v>
+      </c>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="2">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2">
+        <v>6</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I33" s="2">
+        <v>15</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="1"/>
+        <v>15.714285714285714</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="2"/>
+        <v>7.8571428571428568</v>
+      </c>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="2">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1">
+        <v>6</v>
+      </c>
+      <c r="G34" s="1">
+        <v>7</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I34" s="4">
+        <v>2</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="1"/>
+        <v>27.2</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="2"/>
+        <v>13.6</v>
+      </c>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="4">
+        <v>10</v>
+      </c>
+      <c r="E36" s="4">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1">
+        <v>9</v>
+      </c>
+      <c r="G36" s="1">
+        <v>7</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="1"/>
+        <v>35.485714285714288</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="2"/>
+        <v>17.742857142857144</v>
+      </c>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="4">
+        <v>10</v>
+      </c>
+      <c r="E37" s="4">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1">
+        <v>9</v>
+      </c>
+      <c r="G37" s="1">
+        <v>10</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="1"/>
+        <v>37.885714285714286</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="2"/>
+        <v>18.942857142857143</v>
+      </c>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="2">
+        <v>10</v>
+      </c>
+      <c r="E38" s="2">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1">
+        <v>10</v>
+      </c>
+      <c r="G38" s="1">
+        <v>10</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="2">
+        <v>10</v>
+      </c>
+      <c r="E39" s="2">
+        <v>10</v>
+      </c>
+      <c r="F39" s="2">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2">
+        <v>7</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="I39" s="2">
+        <v>2</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="1"/>
+        <v>35.942857142857143</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="2"/>
+        <v>17.971428571428572</v>
+      </c>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="2">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2">
+        <v>10</v>
+      </c>
+      <c r="F40" s="2">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2">
+        <v>10</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I40" s="2">
+        <v>17</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="1"/>
+        <v>30.285714285714285</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="2"/>
+        <v>15.142857142857142</v>
+      </c>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="2">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2">
+        <v>10</v>
+      </c>
+      <c r="F41" s="2">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I41" s="2">
+        <v>6</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="1"/>
+        <v>27.428571428571427</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="2"/>
+        <v>13.714285714285714</v>
+      </c>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="2">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2">
+        <v>10</v>
+      </c>
+      <c r="F43" s="2">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I43" s="2">
+        <v>8</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="1"/>
+        <v>26.571428571428569</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="2"/>
+        <v>13.285714285714285</v>
+      </c>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="2">
+        <v>10</v>
+      </c>
+      <c r="E44" s="2">
+        <v>10</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I44" s="2">
+        <v>9</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="1"/>
+        <v>17.428571428571431</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="2"/>
+        <v>8.7142857142857153</v>
+      </c>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="2">
+        <v>10</v>
+      </c>
+      <c r="E45" s="2">
+        <v>9</v>
+      </c>
+      <c r="F45" s="1">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2">
+        <v>9</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="I45" s="4">
+        <v>2</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="1"/>
+        <v>36.914285714285711</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="2"/>
+        <v>18.457142857142856</v>
+      </c>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="2">
+        <v>9</v>
+      </c>
+      <c r="E46" s="2">
+        <v>9</v>
+      </c>
+      <c r="F46" s="1">
+        <v>9</v>
+      </c>
+      <c r="G46" s="1">
+        <v>7</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="I46" s="2">
+        <v>17</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="1"/>
+        <v>25.74285714285714</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="2"/>
+        <v>12.87142857142857</v>
+      </c>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="2">
+        <v>10</v>
+      </c>
+      <c r="E47" s="2">
+        <v>10</v>
+      </c>
+      <c r="F47" s="2">
+        <v>9</v>
+      </c>
+      <c r="G47" s="2">
+        <v>7</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="I47" s="2">
+        <v>14</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="1"/>
+        <v>28.8</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="2"/>
+        <v>14.4</v>
+      </c>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="2">
+        <v>10</v>
+      </c>
+      <c r="E48" s="2">
+        <v>10</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2</v>
+      </c>
+      <c r="G48" s="2">
+        <v>6</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>47</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="2">
+        <v>10</v>
+      </c>
+      <c r="E49" s="2">
+        <v>10</v>
+      </c>
+      <c r="F49" s="1">
+        <v>8</v>
+      </c>
+      <c r="G49" s="1">
+        <v>10</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="I49" s="2">
+        <v>16</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="1"/>
+        <v>29.314285714285717</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="2"/>
+        <v>14.657142857142858</v>
+      </c>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>49</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="2">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2">
+        <v>9</v>
+      </c>
+      <c r="F51" s="2">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2">
+        <v>10</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="I51" s="2">
+        <v>2</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="1"/>
+        <v>37.885714285714286</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="2"/>
+        <v>18.942857142857143</v>
+      </c>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="2">
+        <v>10</v>
+      </c>
+      <c r="E52" s="2">
+        <v>10</v>
+      </c>
+      <c r="F52" s="2">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2">
+        <v>7</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="I52" s="2">
+        <v>10</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="1"/>
+        <v>31.714285714285715</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="2"/>
+        <v>15.857142857142858</v>
+      </c>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>51</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="2">
+        <v>10</v>
+      </c>
+      <c r="E54" s="2">
+        <v>10</v>
+      </c>
+      <c r="F54" s="2">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2">
+        <v>8</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="I54" s="2">
+        <v>17</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="1"/>
+        <v>28.771428571428572</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="2"/>
+        <v>14.385714285714286</v>
+      </c>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>53</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="2">
+        <v>10</v>
+      </c>
+      <c r="E55" s="2">
+        <v>8</v>
+      </c>
+      <c r="F55" s="2">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2">
+        <v>10</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="I55" s="2">
+        <v>19</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="1"/>
+        <v>27.68571428571429</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="2"/>
+        <v>13.842857142857145</v>
+      </c>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>54</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2">
+        <f t="shared" ref="J56:J63" si="3">H56*(1-I56/60)</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>55</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>56</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>57</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>58</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>59</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>60</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>61</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>62</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>63</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>65</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>66</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>67</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J71"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1">
+        <f>SUM(D3:E3)</f>
+        <v>17</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <f>F3*(1-G3/70)</f>
+        <v>17</v>
+      </c>
+      <c r="I3" s="2">
+        <v>3</v>
+      </c>
+      <c r="J3" s="4">
+        <f>H3*(1-I3/20)</f>
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F67" si="0">SUM(D4:E4)</f>
+        <v>20</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H67" si="1">F4*(1-G4/70)</f>
+        <v>20</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="4">
+        <f t="shared" ref="J4:J67" si="2">H4*(1-I4/20)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="2"/>
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="2"/>
+        <v>17.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="2"/>
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>18.5</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="4">
+        <f t="shared" si="2"/>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="2"/>
+        <v>17.55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="4">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="2">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="1"/>
+        <v>16.514285714285712</v>
+      </c>
+      <c r="I21" s="2">
+        <v>3</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="2"/>
+        <v>14.037142857142856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="4">
+        <v>10</v>
+      </c>
+      <c r="E22" s="4">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="4">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="4">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="2"/>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="4">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G25" s="1">
+        <v>11</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="1"/>
+        <v>8.4285714285714288</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="4">
+        <f t="shared" si="2"/>
+        <v>8.4285714285714288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="2">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="4">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5714285714285712</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="4">
+        <f t="shared" si="2"/>
+        <v>9.5714285714285712</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="2">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="4">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="4">
+        <v>9</v>
+      </c>
+      <c r="E29" s="4">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="2"/>
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="2">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2">
+        <v>9</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G30" s="2">
+        <v>6</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="1"/>
+        <v>15.542857142857143</v>
+      </c>
+      <c r="I30" s="2">
+        <v>3</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="2"/>
+        <v>13.211428571428572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G31" s="1">
+        <v>5</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="1"/>
+        <v>18.571428571428573</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="4">
+        <f t="shared" si="2"/>
+        <v>18.571428571428573</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="4">
+        <v>8</v>
+      </c>
+      <c r="E32" s="4">
+        <v>9</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I32" s="1">
+        <v>3</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="2"/>
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="2">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="2"/>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="2">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2">
+        <v>9</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I34" s="4">
+        <v>3</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="2"/>
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="2">
+        <v>9</v>
+      </c>
+      <c r="E35" s="2">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="4">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="4">
+        <v>9</v>
+      </c>
+      <c r="E36" s="4">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="4">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="4">
+        <v>10</v>
+      </c>
+      <c r="E37" s="4">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="2">
+        <v>10</v>
+      </c>
+      <c r="E38" s="2">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="2">
+        <v>10</v>
+      </c>
+      <c r="E39" s="2">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="2">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="2">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2">
+        <v>8</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" si="2"/>
+        <v>17.55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="2">
+        <v>10</v>
+      </c>
+      <c r="E42" s="2">
+        <v>10</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="2">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="2">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2">
+        <v>9</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I44" s="2">
+        <v>3</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="2"/>
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="2">
+        <v>10</v>
+      </c>
+      <c r="E45" s="2">
+        <v>9</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="2">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2">
+        <v>10</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="4">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="2">
+        <v>10</v>
+      </c>
+      <c r="E48" s="2">
+        <v>10</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>47</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="E49" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="4">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="2">
+        <v>10</v>
+      </c>
+      <c r="E50" s="2">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>49</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="2">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="2">
+        <v>10</v>
+      </c>
+      <c r="E52" s="2">
+        <v>9</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="4">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>51</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="2"/>
+      <c r="J53" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="2">
+        <v>10</v>
+      </c>
+      <c r="E54" s="2">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>53</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="2">
+        <v>10</v>
+      </c>
+      <c r="E55" s="2">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>54</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>55</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>56</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>57</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="2"/>
+      <c r="J59" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>58</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="J60" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>59</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>60</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="2"/>
+      <c r="J62" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>61</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="2"/>
+      <c r="J63" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>62</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="2"/>
+      <c r="J64" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>63</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="2"/>
+      <c r="J65" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>65</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>66</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="1">
+        <f t="shared" ref="F68:F69" si="3">SUM(D68:E68)</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="1">
+        <f t="shared" ref="H68:H70" si="4">F68*(1-G68/70)</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="4">
+        <f t="shared" ref="J68:J71" si="5">H68*(1-I68/20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>67</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="2"/>
+      <c r="J69" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J71"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>14.57142857</v>
+      </c>
+      <c r="F3" s="1">
+        <v>14.45</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <f>SUM(D3:F3)/3+G3</f>
+        <v>15.273809523333332</v>
+      </c>
+      <c r="I3" s="2">
+        <f>H3+1</f>
+        <v>16.273809523333334</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>14.14285714</v>
+      </c>
+      <c r="F4" s="1">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H67" si="0">SUM(D4:F4)/3+G4</f>
+        <v>17.914285713333332</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I67" si="1">H4+1</f>
+        <v>18.914285713333332</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>17.64</v>
+      </c>
+      <c r="E5" s="2">
+        <v>14.57142857</v>
+      </c>
+      <c r="F5" s="1">
+        <v>14.45</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>15.553809523333333</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
+        <v>16.553809523333335</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>15.14285714</v>
+      </c>
+      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>15.714285713333334</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="1"/>
+        <v>16.714285713333332</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>12.61714286</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>17.55</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>15.189047620000002</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>16.189047620000004</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9.7142857140000007</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>17.438095237999999</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>18.438095237999999</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7.9542857140000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5.7142857139999998</v>
+      </c>
+      <c r="F10" s="1">
+        <v>14.45</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>10.372857142666666</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>11.372857142666666</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2">
+        <v>22.285714290000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>22.761904763333334</v>
+      </c>
+      <c r="I11" s="2">
+        <v>20</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2">
+        <v>15.59285714</v>
+      </c>
+      <c r="F12" s="1">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>20.530952379999999</v>
+      </c>
+      <c r="I12" s="2">
+        <v>20</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E13" s="4">
+        <v>13.114285710000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>14.45</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>15.72142857</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>16.72142857</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2">
+        <v>11.30285714</v>
+      </c>
+      <c r="E14" s="2">
+        <v>11.18571429</v>
+      </c>
+      <c r="F14" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>14.662857143333333</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="1"/>
+        <v>15.662857143333333</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2">
+        <v>22.285714290000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>19.14285714</v>
+      </c>
+      <c r="F16" s="1">
+        <v>20</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>22.47619047666667</v>
+      </c>
+      <c r="I16" s="2">
+        <v>20</v>
+      </c>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2">
+        <v>13.28571429</v>
+      </c>
+      <c r="F17" s="1">
+        <v>17.55</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>16.27857143</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="1"/>
+        <v>17.27857143</v>
+      </c>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2">
+        <v>24</v>
+      </c>
+      <c r="E18" s="2">
+        <v>18.85714286</v>
+      </c>
+      <c r="F18" s="1">
+        <v>19</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>20.61904762</v>
+      </c>
+      <c r="I18" s="2">
+        <v>20</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2">
+        <v>20</v>
+      </c>
+      <c r="E20" s="2">
+        <v>8.2571428569999998</v>
+      </c>
+      <c r="F20" s="1">
+        <v>20</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>16.585714285666665</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="1"/>
+        <v>17.585714285666665</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>14.037142859999999</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>11.345714286666668</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="1"/>
+        <v>12.345714286666668</v>
+      </c>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E22" s="4">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1">
+        <v>20</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>18.466666666666665</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="1"/>
+        <v>19.466666666666665</v>
+      </c>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>20</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>11.866666666666667</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="1"/>
+        <v>12.866666666666667</v>
+      </c>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="4">
+        <v>20</v>
+      </c>
+      <c r="E24" s="4">
+        <v>16.121428569999999</v>
+      </c>
+      <c r="F24" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>18.54047619</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="1"/>
+        <v>19.54047619</v>
+      </c>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="E25" s="4">
+        <v>10.07142857</v>
+      </c>
+      <c r="F25" s="1">
+        <v>8.4285714289999998</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>11.366666666333332</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="1"/>
+        <v>12.366666666333332</v>
+      </c>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>12.266666666666666</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="1"/>
+        <v>13.266666666666666</v>
+      </c>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="4">
+        <v>19.2</v>
+      </c>
+      <c r="E27" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="F27" s="1">
+        <v>9.5714285710000002</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>13.790476190333331</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="1"/>
+        <v>14.790476190333331</v>
+      </c>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="2">
+        <v>14.28</v>
+      </c>
+      <c r="E28" s="2">
+        <v>14.271428569999999</v>
+      </c>
+      <c r="F28" s="1">
+        <v>19</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>15.85047619</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="1"/>
+        <v>16.850476190000002</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="4">
+        <v>20.8</v>
+      </c>
+      <c r="E29" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="F29" s="1">
+        <v>14.45</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="0"/>
+        <v>17.916666666666668</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="1"/>
+        <v>18.916666666666668</v>
+      </c>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>13.211428570000001</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4038095233333339</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="1"/>
+        <v>5.4038095233333339</v>
+      </c>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="2">
+        <v>19.2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>11.82857143</v>
+      </c>
+      <c r="F31" s="1">
+        <v>18.571428569999998</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="0"/>
+        <v>16.533333333333331</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="1"/>
+        <v>17.533333333333331</v>
+      </c>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="4">
+        <v>19.2</v>
+      </c>
+      <c r="E32" s="4">
+        <v>14.57142857</v>
+      </c>
+      <c r="F32" s="1">
+        <v>14.45</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="0"/>
+        <v>16.073809523333335</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="1"/>
+        <v>17.073809523333335</v>
+      </c>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>7.8571428570000004</v>
+      </c>
+      <c r="F33" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="0"/>
+        <v>9.1190476189999998</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="1"/>
+        <v>10.119047619</v>
+      </c>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="2">
+        <v>18.514285709999999</v>
+      </c>
+      <c r="E34" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="F34" s="1">
+        <v>14.45</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="0"/>
+        <v>15.521428569999998</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="1"/>
+        <v>16.521428569999998</v>
+      </c>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>19</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="0"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="1"/>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="E36" s="4">
+        <v>17.742857140000002</v>
+      </c>
+      <c r="F36" s="1">
+        <v>19</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="0"/>
+        <v>19.980952380000002</v>
+      </c>
+      <c r="I36" s="2">
+        <v>20</v>
+      </c>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="4">
+        <v>22.4</v>
+      </c>
+      <c r="E37" s="4">
+        <v>18.942857140000001</v>
+      </c>
+      <c r="F37" s="1">
+        <v>20</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="0"/>
+        <v>21.447619046666667</v>
+      </c>
+      <c r="I37" s="2">
+        <v>20</v>
+      </c>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="2">
+        <v>20</v>
+      </c>
+      <c r="E38" s="2">
+        <v>20</v>
+      </c>
+      <c r="F38" s="1">
+        <v>20</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I38" s="2">
+        <v>20</v>
+      </c>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="2">
+        <v>18.925714289999998</v>
+      </c>
+      <c r="E39" s="2">
+        <v>17.97142857</v>
+      </c>
+      <c r="F39" s="1">
+        <v>20</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="0"/>
+        <v>18.965714286666667</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="1"/>
+        <v>19.965714286666667</v>
+      </c>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E40" s="2">
+        <v>15.14285714</v>
+      </c>
+      <c r="F40" s="1">
+        <v>20</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="0"/>
+        <v>17.847619046666665</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="1"/>
+        <v>18.847619046666665</v>
+      </c>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="2">
+        <v>22.4</v>
+      </c>
+      <c r="E41" s="2">
+        <v>13.71428571</v>
+      </c>
+      <c r="F41" s="1">
+        <v>17.55</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="0"/>
+        <v>18.888095236666668</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="1"/>
+        <v>19.888095236666668</v>
+      </c>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>20</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="0"/>
+        <v>12.799999999999999</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="1"/>
+        <v>13.799999999999999</v>
+      </c>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="2">
+        <v>21.76</v>
+      </c>
+      <c r="E43" s="2">
+        <v>13.28571429</v>
+      </c>
+      <c r="F43" s="1">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="0"/>
+        <v>15.015238096666666</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="1"/>
+        <v>16.015238096666664</v>
+      </c>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="2">
+        <v>20</v>
+      </c>
+      <c r="E44" s="2">
+        <v>8.7142857140000007</v>
+      </c>
+      <c r="F44" s="1">
+        <v>14.45</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="0"/>
+        <v>14.388095238</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="1"/>
+        <v>15.388095238</v>
+      </c>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="2">
+        <v>23.6</v>
+      </c>
+      <c r="E45" s="2">
+        <v>18.457142860000001</v>
+      </c>
+      <c r="F45" s="1">
+        <v>19</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="0"/>
+        <v>20.352380953333334</v>
+      </c>
+      <c r="I45" s="2">
+        <v>20</v>
+      </c>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="2">
+        <v>14.49714286</v>
+      </c>
+      <c r="E46" s="2">
+        <v>12.871428570000001</v>
+      </c>
+      <c r="F46" s="1">
+        <v>20</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="0"/>
+        <v>15.78952381</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="1"/>
+        <v>16.789523809999999</v>
+      </c>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="2">
+        <v>12.89142857</v>
+      </c>
+      <c r="E47" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="F47" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="0"/>
+        <v>11.93047619</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="1"/>
+        <v>12.93047619</v>
+      </c>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="2">
+        <v>18.571428569999998</v>
+      </c>
+      <c r="E48" s="2">
+        <v>14</v>
+      </c>
+      <c r="F48" s="1">
+        <v>20</v>
+      </c>
+      <c r="G48" s="2">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="0"/>
+        <v>19.52380952333333</v>
+      </c>
+      <c r="I48" s="2">
+        <v>20</v>
+      </c>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>47</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="2">
+        <v>14.56</v>
+      </c>
+      <c r="E49" s="2">
+        <v>14.65714286</v>
+      </c>
+      <c r="F49" s="1">
+        <v>18</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="0"/>
+        <v>16.739047620000001</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="1"/>
+        <v>17.739047620000001</v>
+      </c>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>20</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="1"/>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>49</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="2">
+        <v>22.4</v>
+      </c>
+      <c r="E51" s="2">
+        <v>18.942857140000001</v>
+      </c>
+      <c r="F51" s="1">
+        <v>20</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="0"/>
+        <v>20.447619046666667</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="1"/>
+        <v>21.447619046666667</v>
+      </c>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="2">
+        <v>17.234285710000002</v>
+      </c>
+      <c r="E52" s="2">
+        <v>15.85714286</v>
+      </c>
+      <c r="F52" s="1">
+        <v>19</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="0"/>
+        <v>17.363809523333334</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="1"/>
+        <v>18.363809523333334</v>
+      </c>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>51</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="2">
+        <v>24</v>
+      </c>
+      <c r="E54" s="2">
+        <v>14.385714289999999</v>
+      </c>
+      <c r="F54" s="1">
+        <v>20</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="0"/>
+        <v>19.461904763333333</v>
+      </c>
+      <c r="I54" s="2">
+        <v>20</v>
+      </c>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>53</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="2">
+        <v>9.0914285709999998</v>
+      </c>
+      <c r="E55" s="2">
+        <v>13.84285714</v>
+      </c>
+      <c r="F55" s="1">
+        <v>20</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="0"/>
+        <v>14.311428570333334</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="1"/>
+        <v>15.311428570333334</v>
+      </c>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>54</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>55</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>56</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>57</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>58</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>59</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>60</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>61</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>62</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>63</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>65</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>66</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="1">
+        <f t="shared" ref="H68:H69" si="2">SUM(D68:F68)/3+G68</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0</v>
+      </c>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>67</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>